--- a/TestData/LV_TMTI0055389_EditExistingOppEngToNewCFJobType.xlsx
+++ b/TestData/LV_TMTI0055389_EditExistingOppEngToNewCFJobType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CC92E-0DC2-41CF-8FDD-DA5A11933E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EDBB67-C3DF-4330-A61B-C2AC5C24F0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27000" windowHeight="14115" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Gemma Hardy</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Jennie Stewart</t>
   </si>
 </sst>
 </file>
@@ -647,14 +647,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{DA42774E-31F3-4AC4-AA1E-B738803768AA}"/>
@@ -1015,7 +1014,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,10 +1032,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1117,186 +1116,186 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1319,12 +1318,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1355,54 +1354,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1426,18 +1425,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
